--- a/wikicfp/wikicfp_data_mining.xlsx
+++ b/wikicfp/wikicfp_data_mining.xlsx
@@ -14,1140 +14,1053 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="349">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>NWCOM 2018</t>
-  </si>
-  <si>
-    <t>SOFT 2018</t>
-  </si>
-  <si>
-    <t>CMC  2018</t>
-  </si>
-  <si>
-    <t>DTMN  2018</t>
-  </si>
-  <si>
-    <t>SAI 2018</t>
-  </si>
-  <si>
-    <t>CDKP  2018</t>
-  </si>
-  <si>
-    <t>ICAITA 2018</t>
-  </si>
-  <si>
-    <t>NMCO 2018</t>
-  </si>
-  <si>
-    <t>DMAP 2018</t>
-  </si>
-  <si>
-    <t>ICCBDC--ACM, Ei Compendex and Scopus 2018</t>
-  </si>
-  <si>
-    <t>IJWSC 2018</t>
-  </si>
-  <si>
-    <t>IJDMS 2018</t>
-  </si>
-  <si>
-    <t>MSEJ 2018</t>
-  </si>
-  <si>
-    <t>IJMPICT 2018</t>
-  </si>
-  <si>
-    <t>IJGCA 2018</t>
-  </si>
-  <si>
-    <t>IJCSEIT 2018</t>
-  </si>
-  <si>
-    <t>IJAIT 2018</t>
-  </si>
-  <si>
-    <t>SCAI 2018</t>
-  </si>
-  <si>
-    <t>IJASUC 2018</t>
-  </si>
-  <si>
-    <t>ICMLB 2018</t>
-  </si>
-  <si>
-    <t>SPPR 2018</t>
-  </si>
-  <si>
-    <t>ITCSS  2018</t>
-  </si>
-  <si>
-    <t>ADCOM 2018</t>
-  </si>
-  <si>
-    <t>ACSTY 2018</t>
-  </si>
-  <si>
-    <t>BDET--Ei Compendex and Scopus 2018</t>
-  </si>
-  <si>
-    <t>IJCAx 2018</t>
-  </si>
-  <si>
-    <t>DMBD-Ei&amp;amp;Scopus 2018</t>
-  </si>
-  <si>
-    <t>IJAB 2018</t>
-  </si>
-  <si>
-    <t>ACIJ 2018</t>
-  </si>
-  <si>
-    <t>IJIST 2018</t>
-  </si>
-  <si>
-    <t>DSIT-Ei&amp;amp;Scopus-ACM 2018</t>
-  </si>
-  <si>
-    <t>JANT 2018</t>
-  </si>
-  <si>
-    <t>ICCBD--ACM, EI and Scopus 2018</t>
-  </si>
-  <si>
-    <t>IJPLA 2018</t>
-  </si>
-  <si>
-    <t>IJOE 2018</t>
-  </si>
-  <si>
-    <t>CAIJ 2018</t>
-  </si>
-  <si>
-    <t>IJBISS 2018</t>
-  </si>
-  <si>
-    <t>Big Data 2018</t>
-  </si>
-  <si>
-    <t>IJDKP 2018</t>
-  </si>
-  <si>
-    <t>IJDPS 2018</t>
-  </si>
-  <si>
-    <t>KDD-DeepLearningDay 2018</t>
-  </si>
-  <si>
-    <t>AutSys 2018</t>
-  </si>
-  <si>
-    <t>PAP 2018</t>
-  </si>
-  <si>
-    <t>MIDAS 2018</t>
-  </si>
-  <si>
-    <t>MLSA 2018</t>
-  </si>
-  <si>
-    <t>LIDTA 2018</t>
-  </si>
-  <si>
-    <t>DARE 2018</t>
-  </si>
-  <si>
-    <t>SNAMS 2018</t>
-  </si>
-  <si>
-    <t>BDIOT--Ei Compendex and Scopus 2018</t>
-  </si>
-  <si>
-    <t>BDML--Ei Compendex and Scopus 2018</t>
-  </si>
-  <si>
-    <t>PBIJ 2018</t>
-  </si>
-  <si>
-    <t>JEDT 2018</t>
-  </si>
-  <si>
-    <t>OPTLJ  2018</t>
-  </si>
-  <si>
-    <t>JoL 2018</t>
-  </si>
-  <si>
-    <t>IJMSA 2018</t>
-  </si>
-  <si>
-    <t>ICDIM 2018</t>
-  </si>
-  <si>
-    <t>CIIS 2018</t>
-  </si>
-  <si>
-    <t>IDEAL  2018</t>
-  </si>
-  <si>
-    <t>DSEA 2018</t>
-  </si>
-  <si>
-    <t>BDSN 2018</t>
-  </si>
-  <si>
-    <t>RDSM 2018</t>
-  </si>
-  <si>
-    <t>OSNT 2018</t>
-  </si>
-  <si>
-    <t>OnTheMove 2018</t>
-  </si>
-  <si>
-    <t>recsysktl 2018</t>
-  </si>
-  <si>
-    <t>FATREC 2018</t>
-  </si>
-  <si>
-    <t>Call for Participants 2018</t>
-  </si>
-  <si>
-    <t>AusDM 2018</t>
-  </si>
-  <si>
-    <t>AAIM 2018</t>
-  </si>
-  <si>
-    <t>AusDM2018-Call For Tutorials 2018</t>
-  </si>
-  <si>
-    <t>IAL@ECMLPKDD 2018</t>
-  </si>
-  <si>
-    <t>SIR 2018</t>
-  </si>
-  <si>
-    <t>NICDL 2018</t>
-  </si>
-  <si>
-    <t>Ei ICEPOE 2019</t>
-  </si>
-  <si>
-    <t>ICBDR--Ei Compendex &amp;amp; Scopus 2018</t>
-  </si>
-  <si>
-    <t>SMCDC 2018</t>
-  </si>
-  <si>
-    <t>ICBTA--Ei Compendex and Scopus 2018</t>
-  </si>
-  <si>
-    <t>DaMNet 2018</t>
-  </si>
-  <si>
-    <t>CDEC 2018</t>
-  </si>
-  <si>
-    <t>ADMiS 2018</t>
-  </si>
-  <si>
-    <t>DELL@ICDM 2018</t>
-  </si>
-  <si>
-    <t>Scopus-ICDPR 2019</t>
-  </si>
-  <si>
-    <t>TIST Special Issue  2018</t>
-  </si>
-  <si>
-    <t>ACML-MoL 2018</t>
-  </si>
-  <si>
-    <t>CPPS 2018</t>
-  </si>
-  <si>
-    <t>MLPMEA 2018</t>
-  </si>
-  <si>
-    <t>RECPAD 2018</t>
-  </si>
-  <si>
-    <t>ICBDSC--ACM, Ei &amp;amp; Scopus 2019</t>
-  </si>
-  <si>
-    <t>MSA 2018</t>
-  </si>
-  <si>
-    <t>ICBDM--Ei Compendex and Scopus 2019</t>
-  </si>
-  <si>
-    <t>AutoML 2018</t>
-  </si>
-  <si>
-    <t>SI-TNNLS-SMLMATA 2018</t>
-  </si>
-  <si>
-    <t>ISCSAI 2018</t>
-  </si>
-  <si>
-    <t>IMCS 2018</t>
-  </si>
-  <si>
-    <t>ICETI 2018</t>
-  </si>
-  <si>
-    <t>ICBDE--Ei and Scopus 2019</t>
-  </si>
-  <si>
-    <t>iDSC 2019</t>
-  </si>
-  <si>
-    <t>ICDMML 2019</t>
-  </si>
-  <si>
-    <t>ADMA 2018</t>
-  </si>
-  <si>
-    <t>BI 2018</t>
-  </si>
-  <si>
-    <t>GCCE-OS-DSC 2018</t>
-  </si>
-  <si>
-    <t>KDML 2018</t>
-  </si>
-  <si>
-    <t>CMCA  2018</t>
-  </si>
-  <si>
-    <t>SNMAM 2018</t>
-  </si>
-  <si>
-    <t>ICDM 2018</t>
-  </si>
-  <si>
-    <t>ML-ISAPR 2018</t>
-  </si>
-  <si>
-    <t>AKTS 2018</t>
-  </si>
-  <si>
-    <t>ICDATA 2018</t>
-  </si>
-  <si>
-    <t>CD 2018</t>
-  </si>
-  <si>
-    <t>BigMine 2018</t>
-  </si>
-  <si>
-    <t>ODD 2018</t>
-  </si>
-  <si>
-    <t>IEEE Xplore--ICDDM--Ei and Scopus 2018</t>
-  </si>
-  <si>
-    <t>MLG 2018</t>
-  </si>
-  <si>
-    <t>BigScholar 2018</t>
-  </si>
-  <si>
-    <t>CONFENIS 2018</t>
-  </si>
-  <si>
-    <t>ITCA 2018</t>
-  </si>
-  <si>
-    <t>AE 2018</t>
-  </si>
-  <si>
-    <t>CIRSY 2018</t>
-  </si>
-  <si>
-    <t>CE 2018</t>
-  </si>
-  <si>
-    <t>ICAIT 2018</t>
-  </si>
-  <si>
-    <t>ITCSE  2018</t>
-  </si>
-  <si>
-    <t>DS-RAIT 2018</t>
-  </si>
-  <si>
-    <t>BDTA 2018</t>
-  </si>
-  <si>
-    <t>BIOKDD 2018</t>
-  </si>
-  <si>
-    <t>IDEA 2018</t>
-  </si>
-  <si>
-    <t>ICKEA--IEEE, Ei Compendex &amp;amp; Scopus 2018</t>
-  </si>
-  <si>
-    <t>BDAI--Ei Compendex and Scopus 2018</t>
-  </si>
-  <si>
-    <t>SEBD 2018</t>
-  </si>
-  <si>
-    <t>KES 2018 PR-TAC 2018</t>
-  </si>
-  <si>
-    <t>Scopus-DMCIT 2018</t>
-  </si>
-  <si>
-    <t>PACMA 2018</t>
-  </si>
-  <si>
-    <t>PHSS 2018</t>
-  </si>
-  <si>
-    <t>ECML-PKDD 2018</t>
-  </si>
-  <si>
-    <t>BDAA 2018</t>
-  </si>
-  <si>
-    <t>ITCON 2018</t>
-  </si>
-  <si>
-    <t>MEAP 2018</t>
-  </si>
-  <si>
-    <t>IMMM 2018</t>
-  </si>
-  <si>
-    <t>ICIKM--EI, Scopus 2018</t>
-  </si>
-  <si>
-    <t>NETWORKS  2018</t>
-  </si>
-  <si>
-    <t>IPDCA  2018</t>
-  </si>
-  <si>
-    <t>MSTED 2018</t>
-  </si>
-  <si>
-    <t>IEEE--ICAIBD--Ei Compendex and Scopus 2018</t>
-  </si>
-  <si>
-    <t>Sideways  2018</t>
-  </si>
-  <si>
-    <t>IMPAct Workshop (Pervasive Health) 2018</t>
-  </si>
-  <si>
-    <t>TSD 2018</t>
-  </si>
-  <si>
-    <t>ICBDT--EI Compendex, Scopus 2018</t>
-  </si>
-  <si>
-    <t>ITA 2018</t>
-  </si>
-  <si>
-    <t>FSDM 2018</t>
-  </si>
-  <si>
-    <t>MISNC 2018</t>
-  </si>
-  <si>
-    <t>Data Analysis - TSP 2018</t>
-  </si>
-  <si>
-    <t>ST-Analytics 2018</t>
-  </si>
-  <si>
-    <t>4TH IEEE IMP 2018</t>
-  </si>
-  <si>
-    <t>DEW 2018</t>
-  </si>
-  <si>
-    <t>ACM--ICDPA--Scopus, Ei Compendex 2018</t>
-  </si>
-  <si>
-    <t>SeCoP 2018</t>
-  </si>
-  <si>
-    <t>DATA 2018</t>
-  </si>
-  <si>
-    <t>ICBDC--Ei and Scopus 2018</t>
-  </si>
-  <si>
-    <t>WPDM 2018</t>
-  </si>
-  <si>
-    <t>IEEE FRUCT 2018</t>
-  </si>
-  <si>
-    <t>INISTA  2018</t>
-  </si>
-  <si>
-    <t>ICCDE--Ei and Scopus 2018</t>
-  </si>
-  <si>
-    <t>TMonJobAds 2018</t>
-  </si>
-  <si>
-    <t>EDM 2018</t>
-  </si>
-  <si>
-    <t>MLDM 2018</t>
-  </si>
-  <si>
-    <t>DSA 2018</t>
-  </si>
-  <si>
-    <t>ICGDA--Ei, ISI and Scopus 2018</t>
-  </si>
-  <si>
-    <t>ISHIMR 2018</t>
-  </si>
-  <si>
-    <t>ICCCBDA--Ei and Scopus 2018</t>
-  </si>
-  <si>
-    <t>[Deadline Extended] APWeb-WAIM 2018</t>
-  </si>
-  <si>
-    <t>WASMM 2018</t>
-  </si>
-  <si>
-    <t>COST 2018</t>
-  </si>
-  <si>
-    <t>KDD 2018</t>
-  </si>
-  <si>
-    <t>HIJJ 2018</t>
-  </si>
-  <si>
-    <t>ICISDM--IEEE Xplore, Ei and Scopus 2018</t>
-  </si>
-  <si>
-    <t>BDAS 2018</t>
-  </si>
-  <si>
-    <t>NAIDES@WCCI CEC 2018</t>
-  </si>
-  <si>
-    <t>CAMSA 2018</t>
-  </si>
-  <si>
-    <t>DMG2 2018</t>
-  </si>
-  <si>
-    <t>CLA 2018</t>
-  </si>
-  <si>
-    <t>IEEE TETCI 2018</t>
-  </si>
-  <si>
-    <t>IEEE-CEM 2018</t>
-  </si>
-  <si>
-    <t>SoAPS 2018</t>
-  </si>
-  <si>
-    <t>BigNet 2018</t>
-  </si>
-  <si>
-    <t>ICCSP - Ei &amp;amp; Scopus 2018</t>
-  </si>
-  <si>
-    <t>ACM--ICCDA--Ei, Scopus, and ISI 2018</t>
-  </si>
-  <si>
-    <t>AIAI 2018</t>
-  </si>
-  <si>
-    <t>ICFIP--EI, Scopus 2018</t>
-  </si>
-  <si>
-    <t>Empowering Deep Learning@IJCNN 2018</t>
-  </si>
-  <si>
-    <t>ICBDE--EI and Scopus 2018</t>
-  </si>
-  <si>
-    <t>DMDMS 2018</t>
-  </si>
-  <si>
-    <t>ICKSE--EI Compendex, Scopus 2018</t>
-  </si>
-  <si>
-    <t>N/A 2018</t>
-  </si>
-  <si>
-    <t>SDMA 2018</t>
-  </si>
-  <si>
-    <t>MLRec 2018</t>
-  </si>
-  <si>
-    <t>IFAC INCOM SIMCA 2018</t>
-  </si>
-  <si>
-    <t>IEEE TETC SI 2017</t>
-  </si>
-  <si>
-    <t>ICME 2018</t>
-  </si>
-  <si>
-    <t>IEEE BigDataService 2018</t>
-  </si>
-  <si>
-    <t>MIS2 @ WSDM 2018</t>
-  </si>
-  <si>
-    <t>IEMIS 2018</t>
-  </si>
-  <si>
-    <t>DM_FLAIRS 2018</t>
-  </si>
-  <si>
-    <t>HeteroNAM 2018</t>
-  </si>
-  <si>
-    <t>AI4Health 2018</t>
-  </si>
-  <si>
-    <t>IRJ-SI 2018</t>
-  </si>
-  <si>
-    <t>ICCTIM 2017</t>
-  </si>
-  <si>
-    <t>data-driven 2017</t>
-  </si>
-  <si>
-    <t>DSCI 2018</t>
-  </si>
-  <si>
-    <t>PAKDD 2018</t>
-  </si>
-  <si>
-    <t>SDM 2018</t>
-  </si>
-  <si>
-    <t>SocialNLP 2017</t>
-  </si>
-  <si>
-    <t>SABID 2017</t>
-  </si>
-  <si>
-    <t>DRCN 2018</t>
-  </si>
-  <si>
-    <t>IET ITS SI 2017</t>
-  </si>
-  <si>
-    <t>BIBM SEPDA 2017</t>
-  </si>
-  <si>
-    <t>KARE  2017</t>
-  </si>
-  <si>
-    <t>VICTA 2017</t>
-  </si>
-  <si>
-    <t>IEEE ITNEC 2017</t>
-  </si>
-  <si>
-    <t>PredictGIS 2017</t>
-  </si>
-  <si>
-    <t>ACM SAC-RS 2018</t>
-  </si>
-  <si>
-    <t>IEEE FRUCT 2017</t>
-  </si>
-  <si>
-    <t>TAAI 2017</t>
-  </si>
-  <si>
-    <t>LKE 2017</t>
-  </si>
-  <si>
-    <t>DMIP 2017</t>
-  </si>
-  <si>
-    <t>ICON 2017</t>
-  </si>
-  <si>
-    <t>SIGSPATIAL Workshops  2017</t>
-  </si>
-  <si>
-    <t>INCISCOS 2017</t>
-  </si>
-  <si>
-    <t>BDCAT 2017</t>
-  </si>
-  <si>
-    <t>DSHCM  2017</t>
-  </si>
-  <si>
-    <t>TRAP 2017</t>
-  </si>
-  <si>
-    <t>BDVA 2017</t>
-  </si>
-  <si>
-    <t>ICT &amp;amp; KE 2017</t>
-  </si>
-  <si>
-    <t>ICDM ARIAL 2017</t>
-  </si>
-  <si>
-    <t>SERecSys 2017</t>
-  </si>
-  <si>
-    <t>ACUMEN 2017</t>
-  </si>
-  <si>
-    <t>DAPS 2017</t>
-  </si>
-  <si>
-    <t>HighStream@ICDM 2017</t>
-  </si>
-  <si>
-    <t>DMCS  2017</t>
-  </si>
-  <si>
-    <t>IEEE Big Data 2017</t>
-  </si>
-  <si>
-    <t>ICDM - MoDAT 2017</t>
-  </si>
-  <si>
-    <t>ACML  2017</t>
-  </si>
-  <si>
-    <t>ACML 2017</t>
-  </si>
-  <si>
-    <t>ICICT 2017</t>
-  </si>
-  <si>
-    <t>ICPET 2017</t>
-  </si>
-  <si>
-    <t>FICC 2018</t>
-  </si>
-  <si>
-    <t>HPGDML 2017</t>
-  </si>
-  <si>
-    <t>IP&amp;amp;M SI 2017</t>
-  </si>
-  <si>
-    <t>GDM book 2017</t>
-  </si>
-  <si>
-    <t>BAFI 2018</t>
-  </si>
-  <si>
-    <t>GISCUP  2017</t>
-  </si>
-  <si>
-    <t>ADMA 2017</t>
-  </si>
-  <si>
-    <t>Workshop on Massive Dataflow Analysis 2017</t>
-  </si>
-  <si>
-    <t>KDD 2017</t>
-  </si>
-  <si>
-    <t>DEAs 2017</t>
-  </si>
-  <si>
-    <t>MIWAI 2017</t>
-  </si>
-  <si>
-    <t>FADS 2017</t>
-  </si>
-  <si>
-    <t>LIDTA 2017</t>
-  </si>
-  <si>
-    <t>IEEE ITOEC 2017</t>
-  </si>
-  <si>
-    <t>MLSA 2017</t>
-  </si>
-  <si>
-    <t>SoGood 2017</t>
-  </si>
-  <si>
-    <t>ICDIM 2017</t>
-  </si>
-  <si>
-    <t>EIDSS 2017</t>
-  </si>
-  <si>
-    <t>IDEAL 2017</t>
-  </si>
-  <si>
-    <t>MoD@ITSC 2017</t>
-  </si>
-  <si>
-    <t>BDBI 2017</t>
-  </si>
-  <si>
-    <t>DMBD 2017</t>
-  </si>
-  <si>
-    <t>Csia  2018</t>
-  </si>
-  <si>
-    <t>RecSysKTL 2017</t>
-  </si>
-  <si>
-    <t>SABID - ApJS 2017</t>
-  </si>
-  <si>
-    <t>EGR 2017</t>
-  </si>
-  <si>
-    <t>SIGSPATIAL 2017</t>
-  </si>
-  <si>
-    <t>EnGeoData@DSAA 2017</t>
-  </si>
-  <si>
-    <t>DSAA 2017</t>
-  </si>
-  <si>
-    <t>DS 2017</t>
-  </si>
-  <si>
-    <t>ICDM 2017</t>
-  </si>
-  <si>
-    <t>IDEA 2017</t>
-  </si>
-  <si>
-    <t>DaMIS 2017</t>
-  </si>
-  <si>
-    <t>AusDM 2017</t>
-  </si>
-  <si>
-    <t>UrbComp 2017</t>
-  </si>
-  <si>
-    <t>KDD MiLeTS Workshop 2017</t>
-  </si>
-  <si>
-    <t>Fashion-ML-KDD 2017</t>
-  </si>
-  <si>
-    <t>MLG 2017</t>
-  </si>
-  <si>
-    <t>CD 2017</t>
-  </si>
-  <si>
-    <t>SML 2017</t>
-  </si>
-  <si>
-    <t>LDM 2017</t>
-  </si>
-  <si>
-    <t>EvoNets@DSAA 2017</t>
-  </si>
-  <si>
-    <t>DSSD 2017</t>
-  </si>
-  <si>
-    <t>Game Data Science 2017</t>
-  </si>
-  <si>
-    <t>AKTS 2017</t>
-  </si>
-  <si>
-    <t>BIOKDD 2017</t>
-  </si>
-  <si>
-    <t>CIARP 2017</t>
-  </si>
-  <si>
-    <t>INIT/AERFAISummerSchoolML 2017</t>
-  </si>
-  <si>
-    <t>DIM 2017</t>
-  </si>
-  <si>
-    <t>DIPDMWC 2017</t>
-  </si>
-  <si>
-    <t>IDA 2017</t>
-  </si>
-  <si>
-    <t>WISE 2017</t>
-  </si>
-  <si>
-    <t>Workshop - DMIN 2017</t>
-  </si>
-  <si>
-    <t>ICIIP 2018</t>
-  </si>
-  <si>
-    <t>DTWSM 2017</t>
-  </si>
-  <si>
-    <t>AdCHIReS 2017</t>
-  </si>
-  <si>
-    <t>WPRSM 2017</t>
-  </si>
-  <si>
-    <t>COREDEMA 2017</t>
-  </si>
-  <si>
-    <t>APDM 2017</t>
-  </si>
-  <si>
-    <t>AIST 2017</t>
-  </si>
-  <si>
-    <t>AIM@EPIA 2017</t>
-  </si>
-  <si>
-    <t>BI 2017</t>
-  </si>
-  <si>
-    <t>KES PR TAC 2017</t>
-  </si>
-  <si>
-    <t>GTM 2017</t>
-  </si>
-  <si>
-    <t>SI-IJCSA 2017</t>
-  </si>
-  <si>
-    <t>DSCI 2017</t>
-  </si>
-  <si>
-    <t>ECML-PKDD 2017</t>
-  </si>
-  <si>
-    <t>WPDM 2017</t>
-  </si>
-  <si>
-    <t>ST-Analytics 2017</t>
-  </si>
-  <si>
-    <t>IEEE ISI 2017</t>
-  </si>
-  <si>
-    <t>Special Session in SMC 2017</t>
-  </si>
-  <si>
-    <t>AI 2017</t>
-  </si>
-  <si>
-    <t>EnCHIReS  2017</t>
-  </si>
-  <si>
-    <t>INDIA 2017</t>
-  </si>
-  <si>
-    <t>SMMA 2017</t>
-  </si>
-  <si>
-    <t>AISI 2017</t>
-  </si>
-  <si>
-    <t>SDAM 2017</t>
-  </si>
-  <si>
-    <t>IJCRS 2017</t>
-  </si>
-  <si>
-    <t>DaWaK 2017</t>
-  </si>
-  <si>
-    <t>Smart X 2017</t>
-  </si>
-  <si>
-    <t>DEW 2017</t>
-  </si>
-  <si>
-    <t>ACM-BCB 2017</t>
-  </si>
-  <si>
-    <t>GeoRich 2017</t>
-  </si>
-  <si>
-    <t>NetCrime 2017</t>
-  </si>
-  <si>
-    <t>DATA 2017</t>
-  </si>
-  <si>
-    <t>FUSION 2017</t>
-  </si>
-  <si>
-    <t>LDK 2017</t>
-  </si>
-  <si>
-    <t>IJSE-SI-EMOM 2017</t>
-  </si>
-  <si>
-    <t>GeoRich @ ACM SIGMOD/PODS 2017</t>
-  </si>
-  <si>
-    <t>FASOMA 2017</t>
-  </si>
-  <si>
-    <t>KES IDT DSS 2017</t>
-  </si>
-  <si>
-    <t>HAIS 2017</t>
-  </si>
-  <si>
-    <t>ISMIS 2017</t>
-  </si>
-  <si>
-    <t>WASMM 2017</t>
-  </si>
-  <si>
-    <t>ADMI 2017</t>
-  </si>
-  <si>
-    <t>MLRec 2017</t>
-  </si>
-  <si>
-    <t>EnGeoData - JDSA 2017</t>
-  </si>
-  <si>
-    <t>HDMM 2017</t>
-  </si>
-  <si>
-    <t>CEC SS on Eng Appl 2017</t>
-  </si>
-  <si>
-    <t>CyberSafety 2017</t>
-  </si>
-  <si>
-    <t>BigScholar 2017</t>
-  </si>
-  <si>
-    <t>BigNet 2017</t>
-  </si>
-  <si>
-    <t>BDASD 2017</t>
-  </si>
-  <si>
-    <t>ISMIS 2017 DM Competition  2017</t>
-  </si>
-  <si>
-    <t>ParLearning 2017</t>
-  </si>
-  <si>
-    <t>WOW 2017</t>
-  </si>
-  <si>
-    <t>KES-IDT / IABIRP 2017</t>
-  </si>
-  <si>
-    <t>CORES 2017</t>
-  </si>
-  <si>
-    <t>PICICT 2017</t>
-  </si>
-  <si>
-    <t>MLDM 2017</t>
-  </si>
-  <si>
-    <t>CCML 2017</t>
-  </si>
-  <si>
-    <t>NextComp 2017</t>
-  </si>
-  <si>
-    <t>SoMePeAS 2017</t>
-  </si>
-  <si>
-    <t>DM4OG 2017</t>
-  </si>
-  <si>
-    <t>iDSC 2017</t>
-  </si>
-  <si>
-    <t>dmmooc 2017</t>
-  </si>
-  <si>
-    <t>SCESM Special Session IoT  2017</t>
-  </si>
-  <si>
-    <t>SeCoP 2017</t>
-  </si>
-  <si>
-    <t>IEA/AIE NAAD 2017</t>
-  </si>
-  <si>
-    <t>JWS-SS 2016</t>
-  </si>
-  <si>
-    <t>AKG 2017</t>
-  </si>
-  <si>
-    <t>SmartMedDev  2017</t>
-  </si>
-  <si>
-    <t>SWJ - KB generation &amp;amp; population 2016</t>
-  </si>
-  <si>
-    <t>KDD Cup 2017</t>
-  </si>
-  <si>
-    <t>WSDM Cup 2017</t>
-  </si>
-  <si>
-    <t>BDAS 2017</t>
-  </si>
-  <si>
-    <t>ITPF 2016</t>
-  </si>
-  <si>
-    <t>ITMLS 2017</t>
-  </si>
-  <si>
-    <t>TIST UI 2017</t>
-  </si>
-  <si>
-    <t>Big Data Analytics@IJCNN 2017</t>
-  </si>
-  <si>
-    <t>Sideways 2017</t>
-  </si>
-  <si>
-    <t>EAST - FLAIRS 2017</t>
-  </si>
-  <si>
-    <t>FLAIRS 2017</t>
-  </si>
-  <si>
-    <t>SWM 2017</t>
-  </si>
-  <si>
-    <t>IEEE TDSC Journal SI 2016</t>
+    <t>IJWSC</t>
+  </si>
+  <si>
+    <t>MSEJ</t>
+  </si>
+  <si>
+    <t>IJDMS</t>
+  </si>
+  <si>
+    <t>IJMPICT</t>
+  </si>
+  <si>
+    <t>IJGCA</t>
+  </si>
+  <si>
+    <t>IJCSEIT</t>
+  </si>
+  <si>
+    <t>IJAIT</t>
+  </si>
+  <si>
+    <t>SCAI</t>
+  </si>
+  <si>
+    <t>IJASUC</t>
+  </si>
+  <si>
+    <t>IJITCS</t>
+  </si>
+  <si>
+    <t>ICMLB</t>
+  </si>
+  <si>
+    <t>SPPR</t>
+  </si>
+  <si>
+    <t>NWCOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITCSS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DTMN </t>
+  </si>
+  <si>
+    <t>ACSTY</t>
+  </si>
+  <si>
+    <t>ADCOM</t>
+  </si>
+  <si>
+    <t>BDET--Ei Compendex and Scopus</t>
+  </si>
+  <si>
+    <t>IJCAx</t>
+  </si>
+  <si>
+    <t>IJAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACITY </t>
+  </si>
+  <si>
+    <t>ACIJ</t>
+  </si>
+  <si>
+    <t>SOFT</t>
+  </si>
+  <si>
+    <t>IJIST</t>
+  </si>
+  <si>
+    <t>DSIT-Ei&amp;amp;Scopus-ACM</t>
+  </si>
+  <si>
+    <t>JANT</t>
+  </si>
+  <si>
+    <t>ICCBD--ACM, EI and Scopus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DPPR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMC </t>
+  </si>
+  <si>
+    <t>IJPLA</t>
+  </si>
+  <si>
+    <t>IJOE</t>
+  </si>
+  <si>
+    <t>ICCBDC--ACM, Ei Compendex and Scopus</t>
+  </si>
+  <si>
+    <t>CAIJ</t>
+  </si>
+  <si>
+    <t>IJBISS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDKP </t>
+  </si>
+  <si>
+    <t>SAI</t>
+  </si>
+  <si>
+    <t>AIAA</t>
+  </si>
+  <si>
+    <t>Big Data</t>
+  </si>
+  <si>
+    <t>IJDKP</t>
+  </si>
+  <si>
+    <t>ICAITA</t>
+  </si>
+  <si>
+    <t>IJDPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P2PTM </t>
+  </si>
+  <si>
+    <t>KDD-DeepLearningDay</t>
+  </si>
+  <si>
+    <t>AutSys</t>
+  </si>
+  <si>
+    <t>DARE</t>
+  </si>
+  <si>
+    <t>PAP</t>
+  </si>
+  <si>
+    <t>MIDAS</t>
+  </si>
+  <si>
+    <t>MLSA</t>
+  </si>
+  <si>
+    <t>LIDTA</t>
+  </si>
+  <si>
+    <t>SNAMS</t>
+  </si>
+  <si>
+    <t>BDIOT--Ei Compendex and Scopus</t>
+  </si>
+  <si>
+    <t>BDML--Ei Compendex and Scopus</t>
+  </si>
+  <si>
+    <t>PBIJ</t>
+  </si>
+  <si>
+    <t>JEDT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPTLJ </t>
+  </si>
+  <si>
+    <t>JoL</t>
+  </si>
+  <si>
+    <t>IJMSA</t>
+  </si>
+  <si>
+    <t>ICDIM</t>
+  </si>
+  <si>
+    <t>CIIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDEAL </t>
+  </si>
+  <si>
+    <t>DSEA</t>
+  </si>
+  <si>
+    <t>BDSN</t>
+  </si>
+  <si>
+    <t>RDSM</t>
+  </si>
+  <si>
+    <t>OSNT</t>
+  </si>
+  <si>
+    <t>OnTheMove</t>
+  </si>
+  <si>
+    <t>recsysktl</t>
+  </si>
+  <si>
+    <t>FATREC</t>
+  </si>
+  <si>
+    <t>Call for Participants</t>
+  </si>
+  <si>
+    <t>AusDM</t>
+  </si>
+  <si>
+    <t>AAIM</t>
+  </si>
+  <si>
+    <t>AusDM2018-Call For Tutorials</t>
+  </si>
+  <si>
+    <t>SIR</t>
+  </si>
+  <si>
+    <t>IAL@ECMLPKDD</t>
+  </si>
+  <si>
+    <t>NICDL</t>
+  </si>
+  <si>
+    <t>Ei ICEPOE</t>
+  </si>
+  <si>
+    <t>ICBDR--Ei Compendex &amp;amp; Scopus</t>
+  </si>
+  <si>
+    <t>SMCDC</t>
+  </si>
+  <si>
+    <t>ICBTA--Ei Compendex and Scopus</t>
+  </si>
+  <si>
+    <t>DaMNet</t>
+  </si>
+  <si>
+    <t>CDEC</t>
+  </si>
+  <si>
+    <t>ADMiS</t>
+  </si>
+  <si>
+    <t>DELL@ICDM</t>
+  </si>
+  <si>
+    <t>CIMA</t>
+  </si>
+  <si>
+    <t>Scopus-ICDPR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIST Special Issue </t>
+  </si>
+  <si>
+    <t>ACML-MoL</t>
+  </si>
+  <si>
+    <t>CPPS</t>
+  </si>
+  <si>
+    <t>MLPMEA</t>
+  </si>
+  <si>
+    <t>RECPAD</t>
+  </si>
+  <si>
+    <t>ICBDSC--ACM, Ei &amp;amp; Scopus</t>
+  </si>
+  <si>
+    <t>MSA</t>
+  </si>
+  <si>
+    <t>ICBDM--Ei Compendex and Scopus</t>
+  </si>
+  <si>
+    <t>AutoML</t>
+  </si>
+  <si>
+    <t>ISCSAI</t>
+  </si>
+  <si>
+    <t>SI-TNNLS-SMLMATA</t>
+  </si>
+  <si>
+    <t>IMCS</t>
+  </si>
+  <si>
+    <t>ICETI</t>
+  </si>
+  <si>
+    <t>ICBDE--Ei and Scopus</t>
+  </si>
+  <si>
+    <t>iDSC</t>
+  </si>
+  <si>
+    <t>ICDMML</t>
+  </si>
+  <si>
+    <t>DMAP</t>
+  </si>
+  <si>
+    <t>NMCO</t>
+  </si>
+  <si>
+    <t>ADMA</t>
+  </si>
+  <si>
+    <t>BI</t>
+  </si>
+  <si>
+    <t>KDML</t>
+  </si>
+  <si>
+    <t>GCCE-OS-DSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMCA </t>
+  </si>
+  <si>
+    <t>SNMAM</t>
+  </si>
+  <si>
+    <t>ICDM</t>
+  </si>
+  <si>
+    <t>ML-ISAPR</t>
+  </si>
+  <si>
+    <t>AKTS</t>
+  </si>
+  <si>
+    <t>ICDATA</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>BigMine</t>
+  </si>
+  <si>
+    <t>BigScholar</t>
+  </si>
+  <si>
+    <t>ODD</t>
+  </si>
+  <si>
+    <t>IEEE Xplore--ICDDM--Ei and Scopus</t>
+  </si>
+  <si>
+    <t>MLG</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>ITCA</t>
+  </si>
+  <si>
+    <t>CONFENIS</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>CIRSY</t>
+  </si>
+  <si>
+    <t>DS-RAIT</t>
+  </si>
+  <si>
+    <t>BDTA</t>
+  </si>
+  <si>
+    <t>IDEA</t>
+  </si>
+  <si>
+    <t>BIOKDD</t>
+  </si>
+  <si>
+    <t>ICKEA--IEEE, Ei Compendex &amp;amp; Scopus</t>
+  </si>
+  <si>
+    <t>BDAI--Ei Compendex and Scopus</t>
+  </si>
+  <si>
+    <t>SEBD</t>
+  </si>
+  <si>
+    <t>Scopus-DMCIT</t>
+  </si>
+  <si>
+    <t>KES 2018 PR-TAC</t>
+  </si>
+  <si>
+    <t>PACMA</t>
+  </si>
+  <si>
+    <t>PHSS</t>
+  </si>
+  <si>
+    <t>ECML-PKDD</t>
+  </si>
+  <si>
+    <t>BDAA</t>
+  </si>
+  <si>
+    <t>ITCON</t>
+  </si>
+  <si>
+    <t>MEAP</t>
+  </si>
+  <si>
+    <t>IMMM</t>
+  </si>
+  <si>
+    <t>ICIKM--EI, Scopus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NETWORKS </t>
+  </si>
+  <si>
+    <t>MSTED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPDCA </t>
+  </si>
+  <si>
+    <t>IEEE--ICAIBD--Ei Compendex and Scopus</t>
+  </si>
+  <si>
+    <t>IMPAct Workshop (Pervasive Health)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sideways </t>
+  </si>
+  <si>
+    <t>TSD</t>
+  </si>
+  <si>
+    <t>ICBDT--EI Compendex, Scopus</t>
+  </si>
+  <si>
+    <t>ITA</t>
+  </si>
+  <si>
+    <t>FSDM</t>
+  </si>
+  <si>
+    <t>Data Analysis - TSP</t>
+  </si>
+  <si>
+    <t>MISNC</t>
+  </si>
+  <si>
+    <t>DEW</t>
+  </si>
+  <si>
+    <t>ST-Analytics</t>
+  </si>
+  <si>
+    <t>4TH IEEE IMP</t>
+  </si>
+  <si>
+    <t>SeCoP</t>
+  </si>
+  <si>
+    <t>ACM--ICDPA--Scopus, Ei Compendex</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>ICBDC--Ei and Scopus</t>
+  </si>
+  <si>
+    <t>WPDM</t>
+  </si>
+  <si>
+    <t>IEEE FRUCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INISTA </t>
+  </si>
+  <si>
+    <t>ICCDE--Ei and Scopus</t>
+  </si>
+  <si>
+    <t>EDM</t>
+  </si>
+  <si>
+    <t>TMonJobAds</t>
+  </si>
+  <si>
+    <t>DSA</t>
+  </si>
+  <si>
+    <t>MLDM</t>
+  </si>
+  <si>
+    <t>ICGDA--Ei, ISI and Scopus</t>
+  </si>
+  <si>
+    <t>ISHIMR</t>
+  </si>
+  <si>
+    <t>ICCCBDA--Ei and Scopus</t>
+  </si>
+  <si>
+    <t>[Deadline Extended] APWeb-WAIM</t>
+  </si>
+  <si>
+    <t>WASMM</t>
+  </si>
+  <si>
+    <t>COST</t>
+  </si>
+  <si>
+    <t>KDD</t>
+  </si>
+  <si>
+    <t>HIJJ</t>
+  </si>
+  <si>
+    <t>ICISDM--IEEE Xplore, Ei and Scopus</t>
+  </si>
+  <si>
+    <t>BDAS</t>
+  </si>
+  <si>
+    <t>CAMSA</t>
+  </si>
+  <si>
+    <t>DMG2</t>
+  </si>
+  <si>
+    <t>NAIDES@WCCI CEC</t>
+  </si>
+  <si>
+    <t>IEEE TETCI</t>
+  </si>
+  <si>
+    <t>IEEE-CEM</t>
+  </si>
+  <si>
+    <t>CLA</t>
+  </si>
+  <si>
+    <t>SoAPS</t>
+  </si>
+  <si>
+    <t>BigNet</t>
+  </si>
+  <si>
+    <t>ICCSP - Ei &amp;amp; Scopus</t>
+  </si>
+  <si>
+    <t>ACM--ICCDA--Ei, Scopus, and ISI</t>
+  </si>
+  <si>
+    <t>AIAI</t>
+  </si>
+  <si>
+    <t>ICFIP--EI, Scopus</t>
+  </si>
+  <si>
+    <t>Empowering Deep Learning@IJCNN</t>
+  </si>
+  <si>
+    <t>ICBDE--EI and Scopus</t>
+  </si>
+  <si>
+    <t>DMDMS</t>
+  </si>
+  <si>
+    <t>ICKSE--EI Compendex, Scopus</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>SDMA</t>
+  </si>
+  <si>
+    <t>MLRec</t>
+  </si>
+  <si>
+    <t>IFAC INCOM SIMCA</t>
+  </si>
+  <si>
+    <t>IEEE TETC SI</t>
+  </si>
+  <si>
+    <t>ICME</t>
+  </si>
+  <si>
+    <t>IEEE BigDataService</t>
+  </si>
+  <si>
+    <t>MIS2 @ WSDM</t>
+  </si>
+  <si>
+    <t>IEMIS</t>
+  </si>
+  <si>
+    <t>HeteroNAM</t>
+  </si>
+  <si>
+    <t>DM_FLAIRS</t>
+  </si>
+  <si>
+    <t>AI4Health</t>
+  </si>
+  <si>
+    <t>IRJ-SI</t>
+  </si>
+  <si>
+    <t>ICCTIM</t>
+  </si>
+  <si>
+    <t>data-driven</t>
+  </si>
+  <si>
+    <t>DSCI</t>
+  </si>
+  <si>
+    <t>PAKDD</t>
+  </si>
+  <si>
+    <t>SDM</t>
+  </si>
+  <si>
+    <t>SABID</t>
+  </si>
+  <si>
+    <t>SocialNLP</t>
+  </si>
+  <si>
+    <t>DRCN</t>
+  </si>
+  <si>
+    <t>IET ITS SI</t>
+  </si>
+  <si>
+    <t>BIBM SEPDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KARE </t>
+  </si>
+  <si>
+    <t>VICTA</t>
+  </si>
+  <si>
+    <t>IEEE ITNEC</t>
+  </si>
+  <si>
+    <t>PredictGIS</t>
+  </si>
+  <si>
+    <t>ACM SAC-RS</t>
+  </si>
+  <si>
+    <t>TAAI</t>
+  </si>
+  <si>
+    <t>LKE</t>
+  </si>
+  <si>
+    <t>DMIP</t>
+  </si>
+  <si>
+    <t>ICON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIGSPATIAL Workshops </t>
+  </si>
+  <si>
+    <t>INCISCOS</t>
+  </si>
+  <si>
+    <t>BDCAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSHCM </t>
+  </si>
+  <si>
+    <t>TRAP</t>
+  </si>
+  <si>
+    <t>BDVA</t>
+  </si>
+  <si>
+    <t>ICT &amp;amp; KE</t>
+  </si>
+  <si>
+    <t>ICDM ARIAL</t>
+  </si>
+  <si>
+    <t>SERecSys</t>
+  </si>
+  <si>
+    <t>ICDM - MoDAT</t>
+  </si>
+  <si>
+    <t>ACUMEN</t>
+  </si>
+  <si>
+    <t>DAPS</t>
+  </si>
+  <si>
+    <t>HighStream@ICDM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMCS </t>
+  </si>
+  <si>
+    <t>IEEE Big Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACML </t>
+  </si>
+  <si>
+    <t>ACML</t>
+  </si>
+  <si>
+    <t>ICICT</t>
+  </si>
+  <si>
+    <t>ICPET</t>
+  </si>
+  <si>
+    <t>FICC</t>
+  </si>
+  <si>
+    <t>HPGDML</t>
+  </si>
+  <si>
+    <t>IP&amp;amp;M SI</t>
+  </si>
+  <si>
+    <t>GDM book</t>
+  </si>
+  <si>
+    <t>BAFI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GISCUP </t>
+  </si>
+  <si>
+    <t>Workshop on Massive Dataflow Analysis</t>
+  </si>
+  <si>
+    <t>MIWAI</t>
+  </si>
+  <si>
+    <t>DEAs</t>
+  </si>
+  <si>
+    <t>FADS</t>
+  </si>
+  <si>
+    <t>IEEE ITOEC</t>
+  </si>
+  <si>
+    <t>SoGood</t>
+  </si>
+  <si>
+    <t>EIDSS</t>
+  </si>
+  <si>
+    <t>DMBD</t>
+  </si>
+  <si>
+    <t>IDEAL</t>
+  </si>
+  <si>
+    <t>MoD@ITSC</t>
+  </si>
+  <si>
+    <t>BDBI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Csia </t>
+  </si>
+  <si>
+    <t>RecSysKTL</t>
+  </si>
+  <si>
+    <t>SABID - ApJS</t>
+  </si>
+  <si>
+    <t>EGR</t>
+  </si>
+  <si>
+    <t>SIGSPATIAL</t>
+  </si>
+  <si>
+    <t>DSAA</t>
+  </si>
+  <si>
+    <t>EnGeoData@DSAA</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>DaMIS</t>
+  </si>
+  <si>
+    <t>UrbComp</t>
+  </si>
+  <si>
+    <t>KDD MiLeTS Workshop</t>
+  </si>
+  <si>
+    <t>SML</t>
+  </si>
+  <si>
+    <t>Fashion-ML-KDD</t>
+  </si>
+  <si>
+    <t>Game Data Science</t>
+  </si>
+  <si>
+    <t>LDM</t>
+  </si>
+  <si>
+    <t>EvoNets@DSAA</t>
+  </si>
+  <si>
+    <t>DSSD</t>
+  </si>
+  <si>
+    <t>CIARP</t>
+  </si>
+  <si>
+    <t>DIM</t>
+  </si>
+  <si>
+    <t>INIT/AERFAISummerSchoolML</t>
+  </si>
+  <si>
+    <t>IDA</t>
+  </si>
+  <si>
+    <t>DIPDMWC</t>
+  </si>
+  <si>
+    <t>WISE</t>
+  </si>
+  <si>
+    <t>AdCHIReS</t>
+  </si>
+  <si>
+    <t>Workshop - DMIN</t>
+  </si>
+  <si>
+    <t>ICIIP</t>
+  </si>
+  <si>
+    <t>DTWSM</t>
+  </si>
+  <si>
+    <t>WPRSM</t>
+  </si>
+  <si>
+    <t>COREDEMA</t>
+  </si>
+  <si>
+    <t>APDM</t>
+  </si>
+  <si>
+    <t>AIST</t>
+  </si>
+  <si>
+    <t>KES PR TAC</t>
+  </si>
+  <si>
+    <t>AIM@EPIA</t>
+  </si>
+  <si>
+    <t>GTM</t>
+  </si>
+  <si>
+    <t>SI-IJCSA</t>
+  </si>
+  <si>
+    <t>IEEE ISI</t>
+  </si>
+  <si>
+    <t>Special Session in SMC</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EnCHIReS </t>
+  </si>
+  <si>
+    <t>INDIA</t>
+  </si>
+  <si>
+    <t>SMMA</t>
+  </si>
+  <si>
+    <t>AISI</t>
+  </si>
+  <si>
+    <t>SDAM</t>
+  </si>
+  <si>
+    <t>IJCRS</t>
+  </si>
+  <si>
+    <t>DaWaK</t>
+  </si>
+  <si>
+    <t>Smart X</t>
+  </si>
+  <si>
+    <t>ACM-BCB</t>
+  </si>
+  <si>
+    <t>GeoRich</t>
+  </si>
+  <si>
+    <t>NetCrime</t>
+  </si>
+  <si>
+    <t>FUSION</t>
+  </si>
+  <si>
+    <t>LDK</t>
+  </si>
+  <si>
+    <t>IJSE-SI-EMOM</t>
+  </si>
+  <si>
+    <t>GeoRich @ ACM SIGMOD/PODS</t>
+  </si>
+  <si>
+    <t>FASOMA</t>
+  </si>
+  <si>
+    <t>HAIS</t>
+  </si>
+  <si>
+    <t>KES IDT DSS</t>
+  </si>
+  <si>
+    <t>ISMIS</t>
+  </si>
+  <si>
+    <t>ADMI</t>
+  </si>
+  <si>
+    <t>EnGeoData - JDSA</t>
+  </si>
+  <si>
+    <t>HDMM</t>
+  </si>
+  <si>
+    <t>CEC SS on Eng Appl</t>
+  </si>
+  <si>
+    <t>CyberSafety</t>
+  </si>
+  <si>
+    <t>BDASD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISMIS 2017 DM Competition </t>
+  </si>
+  <si>
+    <t>ParLearning</t>
+  </si>
+  <si>
+    <t>WOW</t>
+  </si>
+  <si>
+    <t>KES-IDT / IABIRP</t>
+  </si>
+  <si>
+    <t>CCML</t>
+  </si>
+  <si>
+    <t>NextComp</t>
+  </si>
+  <si>
+    <t>CORES</t>
+  </si>
+  <si>
+    <t>PICICT</t>
+  </si>
+  <si>
+    <t>SoMePeAS</t>
+  </si>
+  <si>
+    <t>DM4OG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCESM Special Session IoT </t>
+  </si>
+  <si>
+    <t>dmmooc</t>
+  </si>
+  <si>
+    <t>AKG</t>
+  </si>
+  <si>
+    <t>IEA/AIE NAAD</t>
+  </si>
+  <si>
+    <t>JWS-SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SmartMedDev </t>
+  </si>
+  <si>
+    <t>SWJ - KB generation &amp;amp; population</t>
+  </si>
+  <si>
+    <t>KDD Cup</t>
+  </si>
+  <si>
+    <t>WSDM Cup</t>
+  </si>
+  <si>
+    <t>ITPF</t>
+  </si>
+  <si>
+    <t>ITMLS</t>
+  </si>
+  <si>
+    <t>TIST UI</t>
+  </si>
+  <si>
+    <t>Big Data Analytics@IJCNN</t>
+  </si>
+  <si>
+    <t>Sideways</t>
   </si>
 </sst>
 </file>
@@ -1686,167 +1599,167 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:1">
@@ -1861,122 +1774,122 @@
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="98" spans="1:1">
@@ -1996,332 +1909,332 @@
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>104</v>
+        <v>162</v>
       </c>
     </row>
     <row r="167" spans="1:1">
@@ -2346,222 +2259,222 @@
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>167</v>
+        <v>109</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="215" spans="1:1">
@@ -2576,22 +2489,22 @@
     </row>
     <row r="217" spans="1:1">
       <c r="A217" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="221" spans="1:1">
@@ -2601,897 +2514,897 @@
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>222</v>
+        <v>161</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" t="s">
-        <v>253</v>
+        <v>103</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" t="s">
-        <v>255</v>
+        <v>174</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" t="s">
-        <v>258</v>
+        <v>49</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" t="s">
-        <v>261</v>
+        <v>48</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" t="s">
-        <v>263</v>
+        <v>58</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" t="s">
-        <v>251</v>
+        <v>174</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" t="s">
-        <v>270</v>
+        <v>174</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" t="s">
-        <v>277</v>
+        <v>109</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" t="s">
-        <v>278</v>
+        <v>126</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" t="s">
-        <v>280</v>
+        <v>69</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" t="s">
-        <v>285</v>
+        <v>118</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" t="s">
-        <v>286</v>
+        <v>113</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" t="s">
-        <v>291</v>
+        <v>111</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" t="s">
-        <v>292</v>
+        <v>127</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313" t="s">
-        <v>302</v>
+        <v>174</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316" t="s">
-        <v>251</v>
+        <v>291</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" t="s">
-        <v>251</v>
+        <v>293</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320" t="s">
-        <v>307</v>
+        <v>104</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321" t="s">
-        <v>308</v>
+        <v>174</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" t="s">
-        <v>311</v>
+        <v>174</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325" t="s">
-        <v>312</v>
+        <v>209</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326" t="s">
-        <v>312</v>
+        <v>135</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" t="s">
-        <v>312</v>
+        <v>160</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328" t="s">
-        <v>313</v>
+        <v>154</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" t="s">
-        <v>326</v>
+        <v>153</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" t="s">
-        <v>251</v>
+        <v>309</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" t="s">
-        <v>251</v>
+        <v>310</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347" t="s">
-        <v>329</v>
+        <v>158</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349" t="s">
-        <v>331</v>
+        <v>174</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" t="s">
-        <v>251</v>
+        <v>174</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351" t="s">
-        <v>251</v>
+        <v>312</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" t="s">
-        <v>334</v>
+        <v>174</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355" t="s">
-        <v>333</v>
+        <v>174</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" t="s">
-        <v>340</v>
+        <v>172</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" t="s">
-        <v>342</v>
+        <v>196</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368" t="s">
-        <v>346</v>
+        <v>323</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369" t="s">
-        <v>347</v>
+        <v>115</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370" t="s">
-        <v>348</v>
+        <v>185</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378" t="s">
-        <v>356</v>
+        <v>331</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379" t="s">
-        <v>357</v>
+        <v>332</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380" t="s">
-        <v>358</v>
+        <v>167</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381" t="s">
-        <v>359</v>
+        <v>333</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382" t="s">
-        <v>360</v>
+        <v>334</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383" t="s">
-        <v>361</v>
+        <v>99</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384" t="s">
-        <v>362</v>
+        <v>335</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385" t="s">
-        <v>363</v>
+        <v>336</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386" t="s">
-        <v>364</v>
+        <v>156</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387" t="s">
-        <v>365</v>
+        <v>337</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388" t="s">
-        <v>366</v>
+        <v>338</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" t="s">
-        <v>366</v>
+        <v>339</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>367</v>
+        <v>340</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" t="s">
-        <v>368</v>
+        <v>341</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" t="s">
-        <v>369</v>
+        <v>342</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>370</v>
+        <v>342</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" t="s">
-        <v>371</v>
+        <v>343</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" t="s">
-        <v>372</v>
+        <v>177</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>373</v>
+        <v>344</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>374</v>
+        <v>345</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>375</v>
+        <v>346</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
-        <v>376</v>
+        <v>347</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>377</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
